--- a/raw-data/error_stratum_aliasing.xlsx
+++ b/raw-data/error_stratum_aliasing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/alexandre_bohyn_kuleuven_be/Documents/Articles/third paper - mimetas/Analysis/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_FC8F6BED35E45B09D1592095395BDA16F649559B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA3BB9DA-9D01-4090-90B5-473FABFFF318}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_BBFB2AE2B20C563567F83995395BDA16F6497608" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{229C6BB0-F047-42AE-AD3F-BCDED4138BDC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,15 @@
     <sheet name="factor" sheetId="1" r:id="rId1"/>
     <sheet name="trmt" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">factor!$A$1:$G$32</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="132">
   <si>
     <t>global_stratum</t>
   </si>
@@ -44,6 +47,18 @@
     <t>block</t>
   </si>
   <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>beg, abc, def</t>
+  </si>
+  <si>
     <t>week.plate</t>
   </si>
   <si>
@@ -59,6 +74,12 @@
     <t>w.p</t>
   </si>
   <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>beh, ace, bdf</t>
+  </si>
+  <si>
     <t>week.plate.tube</t>
   </si>
   <si>
@@ -122,12 +143,18 @@
     <t>w.p.t1</t>
   </si>
   <si>
+    <t>ag, ce</t>
+  </si>
+  <si>
     <t>c1.c2.c3</t>
   </si>
   <si>
     <t>w.p.t1.t2</t>
   </si>
   <si>
+    <t>cgh, abg, aeh, adf, bce</t>
+  </si>
+  <si>
     <t>w.p.t1.t2.t3</t>
   </si>
   <si>
@@ -143,6 +170,9 @@
     <t>w.p.t2</t>
   </si>
   <si>
+    <t>bg, eh, df</t>
+  </si>
+  <si>
     <t>c2.c3</t>
   </si>
   <si>
@@ -227,9 +257,18 @@
     <t>w.t1</t>
   </si>
   <si>
+    <t>ah, bc</t>
+  </si>
+  <si>
     <t>w.t1.t2</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>aeg, abh</t>
+  </si>
+  <si>
     <t>w.t1.t2.t3</t>
   </si>
   <si>
@@ -248,6 +287,9 @@
     <t>w.t2</t>
   </si>
   <si>
+    <t>eg, bh, ac</t>
+  </si>
+  <si>
     <t>w.t2.t3</t>
   </si>
   <si>
@@ -263,9 +305,21 @@
     <t>dh, ef</t>
   </si>
   <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Start.Collagen.H_quant, Aliquot.Collagen.Mixing, pH.H_quant.H_rmv</t>
+  </si>
+  <si>
     <t>Start.Ice, Collagen.H_quant</t>
   </si>
   <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Ice.Collagen.H_quant, Aliquot.Mixing.H_quant, Collagen.pH.H_rmv</t>
+  </si>
+  <si>
     <t>Start.Ice.Aliquot, Start.Collagen.Mixing, Ice.Mixing.H_quant, Aliquot.Collagen.H_quant, Mixing.pH.H_rmv</t>
   </si>
   <si>
@@ -290,12 +344,21 @@
     <t>Start.Ice.pH, Start.H_quant.H_rmv, Ice.Collagen.H_rmv, Aliquot.Mixing.H_rmv, Collagen.pH.H_quant</t>
   </si>
   <si>
+    <t>Start.Aliquot, Mixing.H_quant</t>
+  </si>
+  <si>
+    <t>Start.Ice.Mixing, Start.Aliquot.Collagen, Ice.Aliquot.H_quant, Aliquot.pH.H_rmv, Collagen.Mixing.H_quant</t>
+  </si>
+  <si>
     <t>Aliquot.H_rmv</t>
   </si>
   <si>
     <t>Start.Aliquot.pH, Ice.Mixing.H_rmv, Aliquot.Collagen.H_rmv, Mixing.pH.H_quant</t>
   </si>
   <si>
+    <t>Start.Collagen, Ice.H_quant, pH.H_rmv</t>
+  </si>
+  <si>
     <t>H_rmv</t>
   </si>
   <si>
@@ -335,10 +398,22 @@
     <t>Start.Collagen.H_rmv, Ice.H_quant.H_rmv</t>
   </si>
   <si>
+    <t>Ice.Aliquot, Collagen.Mixing</t>
+  </si>
+  <si>
+    <t>Mixing</t>
+  </si>
+  <si>
+    <t>Start.Aliquot.H_quant, Ice.Aliquot.Collagen</t>
+  </si>
+  <si>
     <t>Mixing.pH</t>
   </si>
   <si>
     <t>Start.Mixing.H_rmv, Ice.Aliquot.pH, Aliquot.H_quant.H_rmv, Collagen.Mixing.pH</t>
+  </si>
+  <si>
+    <t>Start.H_quant, Ice.Collagen, Aliquot.Mixing</t>
   </si>
   <si>
     <t>Start.Ice.H_rmv, Start.pH.H_quant, Ice.Collagen.pH, Aliquot.Mixing.pH, Collagen.H_quant.H_rmv</t>
@@ -707,15 +782,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -751,509 +827,499 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s">
-        <v>70</v>
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="G29" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>89</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G32" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="97.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1288,495 +1354,473 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>80</v>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" t="s">
-        <v>86</v>
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>87</v>
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" t="s">
-        <v>92</v>
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>93</v>
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" t="s">
-        <v>95</v>
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" t="s">
-        <v>97</v>
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>98</v>
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" t="s">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" t="s">
-        <v>101</v>
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" t="s">
-        <v>103</v>
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s">
-        <v>104</v>
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>128</v>
+      </c>
+      <c r="G29" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>130</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
